--- a/notebooks/SMAD4/input/SMAD4_MYHRS_individuals.xlsx
+++ b/notebooks/SMAD4/input/SMAD4_MYHRS_individuals.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/SMAD4/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB980D91-DE2B-234B-833B-8FDA36DF28F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0FB3A3-EDD6-D64C-8E38-18EEC7AFB8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4460" yWindow="5920" windowWidth="32160" windowHeight="10000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="217">
   <si>
     <t>PMID</t>
   </si>
@@ -668,6 +668,9 @@
   </si>
   <si>
     <t>NP_005350.1:p.(Arg496Cys)</t>
+  </si>
+  <si>
+    <t>patient</t>
   </si>
 </sst>
 </file>
@@ -1054,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CM14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3038,6 +3041,9 @@
       <c r="B14" t="s">
         <v>193</v>
       </c>
+      <c r="C14" t="s">
+        <v>216</v>
+      </c>
       <c r="E14" t="s">
         <v>72</v>
       </c>
